--- a/16bit_set.xlsx
+++ b/16bit_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\8bit_computer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\LogisimComputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270842B-E3FE-488E-A23B-A28F63B32D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E5E881-1CE6-4956-B5CA-3B6C88C087BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{EFEAE5CF-539C-4B3D-B734-01882FEC1B48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EFEAE5CF-539C-4B3D-B734-01882FEC1B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="308">
   <si>
     <t>Instruction</t>
   </si>
@@ -941,6 +941,15 @@
   <si>
     <t>CLS</t>
   </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
 </sst>
 </file>
 
@@ -1305,15 +1314,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4BF0B-CF4F-4C36-A886-83FB68371329}">
-  <dimension ref="A1:W570"/>
+  <dimension ref="A1:X576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="G565" sqref="G565"/>
+    <sheetView tabSelected="1" topLeftCell="E568" workbookViewId="0">
+      <selection activeCell="I584" sqref="I584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1392,11 @@
       <c r="W1" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1454,8 +1466,11 @@
       <c r="W2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1525,8 +1540,11 @@
       <c r="W3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1596,8 +1614,11 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1667,8 +1688,11 @@
       <c r="W5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1738,8 +1762,11 @@
       <c r="W6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1809,8 +1836,11 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1880,8 +1910,11 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1951,8 +1984,11 @@
       <c r="W9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2022,8 +2058,11 @@
       <c r="W10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2093,8 +2132,11 @@
       <c r="W11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2164,8 +2206,11 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2235,8 +2280,11 @@
       <c r="W13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2306,8 +2354,11 @@
       <c r="W14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2377,8 +2428,11 @@
       <c r="W15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2448,8 +2502,11 @@
       <c r="W16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2519,8 +2576,11 @@
       <c r="W17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2590,8 +2650,11 @@
       <c r="W18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2661,8 +2724,11 @@
       <c r="W19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2732,8 +2798,11 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2803,8 +2872,11 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2874,8 +2946,11 @@
       <c r="W22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2945,8 +3020,11 @@
       <c r="W23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3016,8 +3094,11 @@
       <c r="W24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3087,8 +3168,11 @@
       <c r="W25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3158,8 +3242,11 @@
       <c r="W26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3229,8 +3316,11 @@
       <c r="W27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3300,8 +3390,11 @@
       <c r="W28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3371,8 +3464,11 @@
       <c r="W29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3442,8 +3538,11 @@
       <c r="W30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3513,8 +3612,11 @@
       <c r="W31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3584,8 +3686,11 @@
       <c r="W32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3655,8 +3760,11 @@
       <c r="W33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3726,8 +3834,11 @@
       <c r="W34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3797,8 +3908,11 @@
       <c r="W35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3868,8 +3982,11 @@
       <c r="W36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3939,8 +4056,11 @@
       <c r="W37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -4010,8 +4130,11 @@
       <c r="W38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -4081,8 +4204,11 @@
       <c r="W39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -4152,8 +4278,11 @@
       <c r="W40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -4223,8 +4352,11 @@
       <c r="W41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -4294,8 +4426,11 @@
       <c r="W42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -4365,8 +4500,11 @@
       <c r="W43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4436,8 +4574,11 @@
       <c r="W44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -4507,8 +4648,11 @@
       <c r="W45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -4578,8 +4722,11 @@
       <c r="W46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4649,8 +4796,11 @@
       <c r="W47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4720,8 +4870,11 @@
       <c r="W48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -4791,8 +4944,11 @@
       <c r="W49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -4862,8 +5018,11 @@
       <c r="W50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -4933,8 +5092,11 @@
       <c r="W51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -5004,8 +5166,11 @@
       <c r="W52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -5075,8 +5240,11 @@
       <c r="W53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -5146,8 +5314,11 @@
       <c r="W54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -5217,8 +5388,11 @@
       <c r="W55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -5288,8 +5462,11 @@
       <c r="W56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -5359,8 +5536,11 @@
       <c r="W57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -5430,8 +5610,11 @@
       <c r="W58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -5501,8 +5684,11 @@
       <c r="W59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -5572,8 +5758,11 @@
       <c r="W60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -5643,8 +5832,11 @@
       <c r="W61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -5714,8 +5906,11 @@
       <c r="W62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="W63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -5856,8 +6054,11 @@
       <c r="W64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -5927,8 +6128,11 @@
       <c r="W65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -5998,8 +6202,11 @@
       <c r="W66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -6069,8 +6276,11 @@
       <c r="W67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -6140,8 +6350,11 @@
       <c r="W68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -6211,8 +6424,11 @@
       <c r="W69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -6282,8 +6498,11 @@
       <c r="W70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -6353,8 +6572,11 @@
       <c r="W71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -6424,8 +6646,11 @@
       <c r="W72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -6495,8 +6720,11 @@
       <c r="W73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -6566,8 +6794,11 @@
       <c r="W74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -6637,8 +6868,11 @@
       <c r="W75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -6708,8 +6942,11 @@
       <c r="W76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -6779,8 +7016,11 @@
       <c r="W77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -6850,8 +7090,11 @@
       <c r="W78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -6921,8 +7164,11 @@
       <c r="W79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -6992,8 +7238,11 @@
       <c r="W80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -7063,8 +7312,11 @@
       <c r="W81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -7134,8 +7386,11 @@
       <c r="W82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -7205,8 +7460,11 @@
       <c r="W83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -7276,8 +7534,11 @@
       <c r="W84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -7347,8 +7608,11 @@
       <c r="W85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -7418,8 +7682,11 @@
       <c r="W86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7489,8 +7756,11 @@
       <c r="W87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -7560,8 +7830,11 @@
       <c r="W88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -7631,8 +7904,11 @@
       <c r="W89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -7702,8 +7978,11 @@
       <c r="W90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -7773,8 +8052,11 @@
       <c r="W91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -7844,8 +8126,11 @@
       <c r="W92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -7915,8 +8200,11 @@
       <c r="W93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -7986,8 +8274,11 @@
       <c r="W94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -8057,8 +8348,11 @@
       <c r="W95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -8128,8 +8422,11 @@
       <c r="W96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -8199,8 +8496,11 @@
       <c r="W97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -8270,8 +8570,11 @@
       <c r="W98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -8341,8 +8644,11 @@
       <c r="W99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -8412,8 +8718,11 @@
       <c r="W100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -8483,8 +8792,11 @@
       <c r="W101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -8554,8 +8866,11 @@
       <c r="W102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -8625,8 +8940,11 @@
       <c r="W103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -8696,8 +9014,11 @@
       <c r="W104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -8767,8 +9088,11 @@
       <c r="W105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -8838,8 +9162,11 @@
       <c r="W106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -8909,8 +9236,11 @@
       <c r="W107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -8980,8 +9310,11 @@
       <c r="W108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -9051,8 +9384,11 @@
       <c r="W109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -9122,8 +9458,11 @@
       <c r="W110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -9193,8 +9532,11 @@
       <c r="W111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -9264,8 +9606,11 @@
       <c r="W112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -9335,8 +9680,11 @@
       <c r="W113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -9406,8 +9754,11 @@
       <c r="W114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -9477,8 +9828,11 @@
       <c r="W115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -9548,8 +9902,11 @@
       <c r="W116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -9619,8 +9976,11 @@
       <c r="W117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -9690,8 +10050,11 @@
       <c r="W118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -9761,8 +10124,11 @@
       <c r="W119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -9832,8 +10198,11 @@
       <c r="W120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -9903,8 +10272,11 @@
       <c r="W121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -9974,8 +10346,11 @@
       <c r="W122" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -10045,8 +10420,11 @@
       <c r="W123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -10116,8 +10494,11 @@
       <c r="W124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -10187,8 +10568,11 @@
       <c r="W125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -10258,8 +10642,11 @@
       <c r="W126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -10329,8 +10716,11 @@
       <c r="W127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -10400,8 +10790,11 @@
       <c r="W128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -10471,8 +10864,11 @@
       <c r="W129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -10542,8 +10938,11 @@
       <c r="W130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -10613,8 +11012,11 @@
       <c r="W131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -10684,8 +11086,11 @@
       <c r="W132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -10755,8 +11160,11 @@
       <c r="W133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -10826,8 +11234,11 @@
       <c r="W134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -10897,8 +11308,11 @@
       <c r="W135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -10968,8 +11382,11 @@
       <c r="W136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -11039,8 +11456,11 @@
       <c r="W137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -11110,8 +11530,11 @@
       <c r="W138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -11181,8 +11604,11 @@
       <c r="W139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -11252,8 +11678,11 @@
       <c r="W140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -11323,8 +11752,11 @@
       <c r="W141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -11394,8 +11826,11 @@
       <c r="W142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -11465,8 +11900,11 @@
       <c r="W143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -11536,8 +11974,11 @@
       <c r="W144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -11607,8 +12048,11 @@
       <c r="W145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -11678,8 +12122,11 @@
       <c r="W146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -11749,8 +12196,11 @@
       <c r="W147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -11820,8 +12270,11 @@
       <c r="W148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -11891,8 +12344,11 @@
       <c r="W149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -11962,8 +12418,11 @@
       <c r="W150" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -12033,8 +12492,11 @@
       <c r="W151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -12104,8 +12566,11 @@
       <c r="W152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -12175,8 +12640,11 @@
       <c r="W153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -12246,8 +12714,11 @@
       <c r="W154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -12317,8 +12788,11 @@
       <c r="W155" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -12388,8 +12862,11 @@
       <c r="W156" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -12459,8 +12936,11 @@
       <c r="W157" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -12530,8 +13010,11 @@
       <c r="W158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -12601,8 +13084,11 @@
       <c r="W159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -12672,8 +13158,11 @@
       <c r="W160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -12743,8 +13232,11 @@
       <c r="W161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -12814,8 +13306,11 @@
       <c r="W162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -12885,8 +13380,11 @@
       <c r="W163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -12956,8 +13454,11 @@
       <c r="W164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -13027,8 +13528,11 @@
       <c r="W165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -13098,8 +13602,11 @@
       <c r="W166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -13169,8 +13676,11 @@
       <c r="W167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -13240,8 +13750,11 @@
       <c r="W168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -13311,8 +13824,11 @@
       <c r="W169" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -13382,8 +13898,11 @@
       <c r="W170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -13453,8 +13972,11 @@
       <c r="W171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -13524,8 +14046,11 @@
       <c r="W172" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -13595,8 +14120,11 @@
       <c r="W173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -13666,8 +14194,11 @@
       <c r="W174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -13737,8 +14268,11 @@
       <c r="W175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -13808,8 +14342,11 @@
       <c r="W176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -13879,8 +14416,11 @@
       <c r="W177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -13950,8 +14490,11 @@
       <c r="W178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -14021,8 +14564,11 @@
       <c r="W179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -14092,8 +14638,11 @@
       <c r="W180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -14163,8 +14712,11 @@
       <c r="W181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -14234,8 +14786,11 @@
       <c r="W182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -14305,8 +14860,11 @@
       <c r="W183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -14376,8 +14934,11 @@
       <c r="W184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -14447,8 +15008,11 @@
       <c r="W185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -14518,8 +15082,11 @@
       <c r="W186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -14589,8 +15156,11 @@
       <c r="W187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -14660,8 +15230,11 @@
       <c r="W188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -14731,8 +15304,11 @@
       <c r="W189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -14802,8 +15378,11 @@
       <c r="W190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -14873,8 +15452,11 @@
       <c r="W191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -14944,8 +15526,11 @@
       <c r="W192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -15015,8 +15600,11 @@
       <c r="W193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -15086,8 +15674,11 @@
       <c r="W194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -15157,8 +15748,11 @@
       <c r="W195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -15228,8 +15822,11 @@
       <c r="W196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -15299,8 +15896,11 @@
       <c r="W197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -15370,8 +15970,11 @@
       <c r="W198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -15441,8 +16044,11 @@
       <c r="W199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -15512,8 +16118,11 @@
       <c r="W200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -15583,8 +16192,11 @@
       <c r="W201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -15654,8 +16266,11 @@
       <c r="W202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -15725,8 +16340,11 @@
       <c r="W203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -15796,8 +16414,11 @@
       <c r="W204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -15867,8 +16488,11 @@
       <c r="W205" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -15938,8 +16562,11 @@
       <c r="W206" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -16009,8 +16636,11 @@
       <c r="W207" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -16080,8 +16710,11 @@
       <c r="W208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -16151,8 +16784,11 @@
       <c r="W209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -16222,8 +16858,11 @@
       <c r="W210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -16293,8 +16932,11 @@
       <c r="W211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -16364,8 +17006,11 @@
       <c r="W212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -16435,8 +17080,11 @@
       <c r="W213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -16506,8 +17154,11 @@
       <c r="W214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -16577,8 +17228,11 @@
       <c r="W215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -16648,8 +17302,11 @@
       <c r="W216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -16719,8 +17376,11 @@
       <c r="W217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -16790,8 +17450,11 @@
       <c r="W218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -16861,8 +17524,11 @@
       <c r="W219" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -16932,8 +17598,11 @@
       <c r="W220" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -17003,8 +17672,11 @@
       <c r="W221" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -17074,8 +17746,11 @@
       <c r="W222" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -17145,8 +17820,11 @@
       <c r="W223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -17216,8 +17894,11 @@
       <c r="W224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -17287,8 +17968,11 @@
       <c r="W225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -17358,8 +18042,11 @@
       <c r="W226" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -17429,8 +18116,11 @@
       <c r="W227" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -17500,8 +18190,11 @@
       <c r="W228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -17571,8 +18264,11 @@
       <c r="W229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -17642,8 +18338,11 @@
       <c r="W230" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -17713,8 +18412,11 @@
       <c r="W231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -17784,8 +18486,11 @@
       <c r="W232" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -17855,8 +18560,11 @@
       <c r="W233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -17926,8 +18634,11 @@
       <c r="W234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -17997,8 +18708,11 @@
       <c r="W235" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -18068,8 +18782,11 @@
       <c r="W236" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -18139,8 +18856,11 @@
       <c r="W237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -18210,8 +18930,11 @@
       <c r="W238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -18281,8 +19004,11 @@
       <c r="W239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -18352,8 +19078,11 @@
       <c r="W240" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -18423,8 +19152,11 @@
       <c r="W241" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -18494,8 +19226,11 @@
       <c r="W242" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -18565,8 +19300,11 @@
       <c r="W243" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -18636,8 +19374,11 @@
       <c r="W244" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -18707,8 +19448,11 @@
       <c r="W245" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -18778,8 +19522,11 @@
       <c r="W246" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -18849,8 +19596,11 @@
       <c r="W247" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -18920,8 +19670,11 @@
       <c r="W248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -18991,8 +19744,11 @@
       <c r="W249" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -19062,8 +19818,11 @@
       <c r="W250" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -19133,8 +19892,11 @@
       <c r="W251" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -19204,8 +19966,11 @@
       <c r="W252" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -19275,8 +20040,11 @@
       <c r="W253" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -19346,8 +20114,11 @@
       <c r="W254" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -19417,8 +20188,11 @@
       <c r="W255" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -19488,8 +20262,11 @@
       <c r="W256" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -19559,8 +20336,11 @@
       <c r="W257" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -19630,8 +20410,11 @@
       <c r="W258" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -19701,8 +20484,11 @@
       <c r="W259" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -19772,8 +20558,11 @@
       <c r="W260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -19843,8 +20632,11 @@
       <c r="W261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -19914,8 +20706,11 @@
       <c r="W262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -19985,8 +20780,11 @@
       <c r="W263" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -20056,8 +20854,11 @@
       <c r="W264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -20127,8 +20928,11 @@
       <c r="W265" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>19</v>
       </c>
@@ -20198,8 +21002,11 @@
       <c r="W266" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -20269,8 +21076,11 @@
       <c r="W267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -20340,8 +21150,11 @@
       <c r="W268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -20411,8 +21224,11 @@
       <c r="W269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -20482,8 +21298,11 @@
       <c r="W270" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -20553,8 +21372,11 @@
       <c r="W271" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -20624,8 +21446,11 @@
       <c r="W272" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -20695,8 +21520,11 @@
       <c r="W273" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -20766,8 +21594,11 @@
       <c r="W274" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -20837,8 +21668,11 @@
       <c r="W275" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -20908,8 +21742,11 @@
       <c r="W276" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -20979,8 +21816,11 @@
       <c r="W277" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -21050,8 +21890,11 @@
       <c r="W278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -21121,8 +21964,11 @@
       <c r="W279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -21192,8 +22038,11 @@
       <c r="W280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -21263,8 +22112,11 @@
       <c r="W281" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -21334,8 +22186,11 @@
       <c r="W282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>19</v>
       </c>
@@ -21405,8 +22260,11 @@
       <c r="W283" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -21476,8 +22334,11 @@
       <c r="W284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -21547,8 +22408,11 @@
       <c r="W285" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -21618,8 +22482,11 @@
       <c r="W286" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -21689,8 +22556,11 @@
       <c r="W287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -21760,8 +22630,11 @@
       <c r="W288" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -21831,8 +22704,11 @@
       <c r="W289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -21902,8 +22778,11 @@
       <c r="W290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -21973,8 +22852,11 @@
       <c r="W291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
@@ -22044,8 +22926,11 @@
       <c r="W292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -22115,8 +23000,11 @@
       <c r="W293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -22186,8 +23074,11 @@
       <c r="W294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -22257,8 +23148,11 @@
       <c r="W295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -22328,8 +23222,11 @@
       <c r="W296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>19</v>
       </c>
@@ -22399,8 +23296,11 @@
       <c r="W297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -22470,8 +23370,11 @@
       <c r="W298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>19</v>
       </c>
@@ -22541,8 +23444,11 @@
       <c r="W299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -22612,8 +23518,11 @@
       <c r="W300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>19</v>
       </c>
@@ -22683,8 +23592,11 @@
       <c r="W301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>19</v>
       </c>
@@ -22754,8 +23666,11 @@
       <c r="W302" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -22825,8 +23740,11 @@
       <c r="W303" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -22896,8 +23814,11 @@
       <c r="W304" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>19</v>
       </c>
@@ -22967,8 +23888,11 @@
       <c r="W305" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -23038,8 +23962,11 @@
       <c r="W306" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>19</v>
       </c>
@@ -23109,8 +24036,11 @@
       <c r="W307" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -23180,8 +24110,11 @@
       <c r="W308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -23251,8 +24184,11 @@
       <c r="W309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -23322,8 +24258,11 @@
       <c r="W310" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -23393,8 +24332,11 @@
       <c r="W311" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -23464,8 +24406,11 @@
       <c r="W312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -23535,8 +24480,11 @@
       <c r="W313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -23606,8 +24554,11 @@
       <c r="W314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -23677,8 +24628,11 @@
       <c r="W315" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -23748,8 +24702,11 @@
       <c r="W316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -23819,8 +24776,11 @@
       <c r="W317" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -23890,8 +24850,11 @@
       <c r="W318" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -23961,8 +24924,11 @@
       <c r="W319" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -24032,8 +24998,11 @@
       <c r="W320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>19</v>
       </c>
@@ -24103,8 +25072,11 @@
       <c r="W321" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -24174,8 +25146,11 @@
       <c r="W322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>19</v>
       </c>
@@ -24245,8 +25220,11 @@
       <c r="W323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -24316,8 +25294,11 @@
       <c r="W324" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>19</v>
       </c>
@@ -24387,8 +25368,11 @@
       <c r="W325" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>19</v>
       </c>
@@ -24458,8 +25442,11 @@
       <c r="W326" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -24529,8 +25516,11 @@
       <c r="W327" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -24600,8 +25590,11 @@
       <c r="W328" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>19</v>
       </c>
@@ -24671,8 +25664,11 @@
       <c r="W329" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -24742,8 +25738,11 @@
       <c r="W330" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>19</v>
       </c>
@@ -24813,8 +25812,11 @@
       <c r="W331" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -24884,8 +25886,11 @@
       <c r="W332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>19</v>
       </c>
@@ -24955,8 +25960,11 @@
       <c r="W333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>19</v>
       </c>
@@ -25026,8 +26034,11 @@
       <c r="W334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -25097,8 +26108,11 @@
       <c r="W335" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>19</v>
       </c>
@@ -25168,8 +26182,11 @@
       <c r="W336" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -25239,8 +26256,11 @@
       <c r="W337" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>19</v>
       </c>
@@ -25310,8 +26330,11 @@
       <c r="W338" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -25381,8 +26404,11 @@
       <c r="W339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -25452,8 +26478,11 @@
       <c r="W340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>19</v>
       </c>
@@ -25523,8 +26552,11 @@
       <c r="W341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>19</v>
       </c>
@@ -25594,8 +26626,11 @@
       <c r="W342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -25665,8 +26700,11 @@
       <c r="W343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -25736,8 +26774,11 @@
       <c r="W344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>19</v>
       </c>
@@ -25807,8 +26848,11 @@
       <c r="W345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>19</v>
       </c>
@@ -25878,8 +26922,11 @@
       <c r="W346" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -25949,8 +26996,11 @@
       <c r="W347" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -26020,8 +27070,11 @@
       <c r="W348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>19</v>
       </c>
@@ -26091,8 +27144,11 @@
       <c r="W349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -26162,8 +27218,11 @@
       <c r="W350" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>19</v>
       </c>
@@ -26233,8 +27292,11 @@
       <c r="W351" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>19</v>
       </c>
@@ -26304,8 +27366,11 @@
       <c r="W352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -26375,8 +27440,11 @@
       <c r="W353" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>19</v>
       </c>
@@ -26446,8 +27514,11 @@
       <c r="W354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>19</v>
       </c>
@@ -26517,8 +27588,11 @@
       <c r="W355" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>19</v>
       </c>
@@ -26588,8 +27662,11 @@
       <c r="W356" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>19</v>
       </c>
@@ -26659,8 +27736,11 @@
       <c r="W357" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -26730,8 +27810,11 @@
       <c r="W358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>19</v>
       </c>
@@ -26801,8 +27884,11 @@
       <c r="W359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -26872,8 +27958,11 @@
       <c r="W360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>19</v>
       </c>
@@ -26943,8 +28032,11 @@
       <c r="W361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>19</v>
       </c>
@@ -27014,8 +28106,11 @@
       <c r="W362" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>19</v>
       </c>
@@ -27085,8 +28180,11 @@
       <c r="W363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>19</v>
       </c>
@@ -27156,8 +28254,11 @@
       <c r="W364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>19</v>
       </c>
@@ -27227,8 +28328,11 @@
       <c r="W365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>19</v>
       </c>
@@ -27298,8 +28402,11 @@
       <c r="W366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>19</v>
       </c>
@@ -27369,8 +28476,11 @@
       <c r="W367" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>19</v>
       </c>
@@ -27440,8 +28550,11 @@
       <c r="W368" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -27511,8 +28624,11 @@
       <c r="W369" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>19</v>
       </c>
@@ -27582,8 +28698,11 @@
       <c r="W370" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>19</v>
       </c>
@@ -27653,8 +28772,11 @@
       <c r="W371" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>19</v>
       </c>
@@ -27724,8 +28846,11 @@
       <c r="W372" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>19</v>
       </c>
@@ -27795,8 +28920,11 @@
       <c r="W373" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>19</v>
       </c>
@@ -27866,8 +28994,11 @@
       <c r="W374" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>19</v>
       </c>
@@ -27937,8 +29068,11 @@
       <c r="W375" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>19</v>
       </c>
@@ -28008,8 +29142,11 @@
       <c r="W376" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>19</v>
       </c>
@@ -28079,8 +29216,11 @@
       <c r="W377" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>19</v>
       </c>
@@ -28150,8 +29290,11 @@
       <c r="W378" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>19</v>
       </c>
@@ -28221,8 +29364,11 @@
       <c r="W379" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>19</v>
       </c>
@@ -28292,8 +29438,11 @@
       <c r="W380" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>19</v>
       </c>
@@ -28363,8 +29512,11 @@
       <c r="W381" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>19</v>
       </c>
@@ -28434,8 +29586,11 @@
       <c r="W382" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>19</v>
       </c>
@@ -28505,8 +29660,11 @@
       <c r="W383" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>19</v>
       </c>
@@ -28576,8 +29734,11 @@
       <c r="W384" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>19</v>
       </c>
@@ -28647,8 +29808,11 @@
       <c r="W385" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -28718,8 +29882,11 @@
       <c r="W386" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X386" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>19</v>
       </c>
@@ -28789,8 +29956,11 @@
       <c r="W387" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X387" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>19</v>
       </c>
@@ -28860,8 +30030,11 @@
       <c r="W388" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X388" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>19</v>
       </c>
@@ -28931,8 +30104,11 @@
       <c r="W389" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X389" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>19</v>
       </c>
@@ -29002,8 +30178,11 @@
       <c r="W390" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X390" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>19</v>
       </c>
@@ -29073,8 +30252,11 @@
       <c r="W391" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X391" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -29144,8 +30326,11 @@
       <c r="W392" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X392" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>19</v>
       </c>
@@ -29215,8 +30400,11 @@
       <c r="W393" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X393" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>19</v>
       </c>
@@ -29286,8 +30474,11 @@
       <c r="W394" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X394" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -29357,8 +30548,11 @@
       <c r="W395" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X395" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>19</v>
       </c>
@@ -29428,8 +30622,11 @@
       <c r="W396" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X396" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -29499,8 +30696,11 @@
       <c r="W397" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X397" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>19</v>
       </c>
@@ -29570,8 +30770,11 @@
       <c r="W398" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X398" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>19</v>
       </c>
@@ -29641,8 +30844,11 @@
       <c r="W399" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X399" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>19</v>
       </c>
@@ -29712,8 +30918,11 @@
       <c r="W400" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X400" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>19</v>
       </c>
@@ -29783,8 +30992,11 @@
       <c r="W401" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X401" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -29854,8 +31066,11 @@
       <c r="W402" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>19</v>
       </c>
@@ -29925,8 +31140,11 @@
       <c r="W403" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X403" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>19</v>
       </c>
@@ -29996,8 +31214,11 @@
       <c r="W404" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X404" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>19</v>
       </c>
@@ -30067,8 +31288,11 @@
       <c r="W405" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X405" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>19</v>
       </c>
@@ -30138,8 +31362,11 @@
       <c r="W406" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X406" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>19</v>
       </c>
@@ -30209,8 +31436,11 @@
       <c r="W407" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X407" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>19</v>
       </c>
@@ -30280,8 +31510,11 @@
       <c r="W408" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X408" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>19</v>
       </c>
@@ -30351,8 +31584,11 @@
       <c r="W409" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X409" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>19</v>
       </c>
@@ -30422,8 +31658,11 @@
       <c r="W410" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>19</v>
       </c>
@@ -30493,8 +31732,11 @@
       <c r="W411" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X411" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>19</v>
       </c>
@@ -30564,8 +31806,11 @@
       <c r="W412" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X412" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>19</v>
       </c>
@@ -30635,8 +31880,11 @@
       <c r="W413" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X413" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>19</v>
       </c>
@@ -30706,8 +31954,11 @@
       <c r="W414" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>19</v>
       </c>
@@ -30777,8 +32028,11 @@
       <c r="W415" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>19</v>
       </c>
@@ -30848,8 +32102,11 @@
       <c r="W416" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>19</v>
       </c>
@@ -30919,8 +32176,11 @@
       <c r="W417" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X417" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>19</v>
       </c>
@@ -30990,8 +32250,11 @@
       <c r="W418" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>19</v>
       </c>
@@ -31061,8 +32324,11 @@
       <c r="W419" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>19</v>
       </c>
@@ -31132,8 +32398,11 @@
       <c r="W420" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>19</v>
       </c>
@@ -31203,8 +32472,11 @@
       <c r="W421" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>19</v>
       </c>
@@ -31274,8 +32546,11 @@
       <c r="W422" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>19</v>
       </c>
@@ -31345,8 +32620,11 @@
       <c r="W423" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -31416,8 +32694,11 @@
       <c r="W424" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X424" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -31487,8 +32768,11 @@
       <c r="W425" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X425" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>19</v>
       </c>
@@ -31558,8 +32842,11 @@
       <c r="W426" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X426" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>19</v>
       </c>
@@ -31629,8 +32916,11 @@
       <c r="W427" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>19</v>
       </c>
@@ -31700,8 +32990,11 @@
       <c r="W428" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X428" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>19</v>
       </c>
@@ -31771,8 +33064,11 @@
       <c r="W429" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X429" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>19</v>
       </c>
@@ -31842,8 +33138,11 @@
       <c r="W430" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>19</v>
       </c>
@@ -31913,8 +33212,11 @@
       <c r="W431" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X431" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>19</v>
       </c>
@@ -31984,8 +33286,11 @@
       <c r="W432" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>19</v>
       </c>
@@ -32055,8 +33360,11 @@
       <c r="W433" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X433" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>19</v>
       </c>
@@ -32126,8 +33434,11 @@
       <c r="W434" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>19</v>
       </c>
@@ -32197,8 +33508,11 @@
       <c r="W435" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>19</v>
       </c>
@@ -32268,8 +33582,11 @@
       <c r="W436" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>19</v>
       </c>
@@ -32339,8 +33656,11 @@
       <c r="W437" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>19</v>
       </c>
@@ -32410,8 +33730,11 @@
       <c r="W438" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>19</v>
       </c>
@@ -32481,8 +33804,11 @@
       <c r="W439" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X439" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>19</v>
       </c>
@@ -32552,8 +33878,11 @@
       <c r="W440" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X440" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>19</v>
       </c>
@@ -32623,8 +33952,11 @@
       <c r="W441" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X441" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>19</v>
       </c>
@@ -32694,8 +34026,11 @@
       <c r="W442" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>19</v>
       </c>
@@ -32765,8 +34100,11 @@
       <c r="W443" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X443" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>19</v>
       </c>
@@ -32836,8 +34174,11 @@
       <c r="W444" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X444" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>19</v>
       </c>
@@ -32907,8 +34248,11 @@
       <c r="W445" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X445" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>19</v>
       </c>
@@ -32978,8 +34322,11 @@
       <c r="W446" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>19</v>
       </c>
@@ -33049,8 +34396,11 @@
       <c r="W447" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>19</v>
       </c>
@@ -33120,8 +34470,11 @@
       <c r="W448" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X448" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>19</v>
       </c>
@@ -33191,8 +34544,11 @@
       <c r="W449" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X449" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>19</v>
       </c>
@@ -33262,8 +34618,11 @@
       <c r="W450" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X450" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>19</v>
       </c>
@@ -33333,8 +34692,11 @@
       <c r="W451" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>19</v>
       </c>
@@ -33404,8 +34766,11 @@
       <c r="W452" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X452" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>19</v>
       </c>
@@ -33475,8 +34840,11 @@
       <c r="W453" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>19</v>
       </c>
@@ -33546,8 +34914,11 @@
       <c r="W454" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>19</v>
       </c>
@@ -33617,8 +34988,11 @@
       <c r="W455" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X455" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>19</v>
       </c>
@@ -33688,8 +35062,11 @@
       <c r="W456" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>19</v>
       </c>
@@ -33759,8 +35136,11 @@
       <c r="W457" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>19</v>
       </c>
@@ -33830,8 +35210,11 @@
       <c r="W458" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>19</v>
       </c>
@@ -33901,8 +35284,11 @@
       <c r="W459" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>19</v>
       </c>
@@ -33972,8 +35358,11 @@
       <c r="W460" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X460" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>19</v>
       </c>
@@ -34043,8 +35432,11 @@
       <c r="W461" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X461" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>19</v>
       </c>
@@ -34114,8 +35506,11 @@
       <c r="W462" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X462" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>19</v>
       </c>
@@ -34185,8 +35580,11 @@
       <c r="W463" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X463" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>19</v>
       </c>
@@ -34256,8 +35654,11 @@
       <c r="W464" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X464" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>19</v>
       </c>
@@ -34327,8 +35728,11 @@
       <c r="W465" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X465" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>19</v>
       </c>
@@ -34398,8 +35802,11 @@
       <c r="W466" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X466" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>19</v>
       </c>
@@ -34469,8 +35876,11 @@
       <c r="W467" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X467" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>19</v>
       </c>
@@ -34540,8 +35950,11 @@
       <c r="W468" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X468" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>19</v>
       </c>
@@ -34611,8 +36024,11 @@
       <c r="W469" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X469" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>19</v>
       </c>
@@ -34682,8 +36098,11 @@
       <c r="W470" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>19</v>
       </c>
@@ -34753,8 +36172,11 @@
       <c r="W471" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X471" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>19</v>
       </c>
@@ -34824,8 +36246,11 @@
       <c r="W472" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X472" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>19</v>
       </c>
@@ -34895,8 +36320,11 @@
       <c r="W473" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X473" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>19</v>
       </c>
@@ -34966,8 +36394,11 @@
       <c r="W474" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X474" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>19</v>
       </c>
@@ -35037,8 +36468,11 @@
       <c r="W475" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X475" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>19</v>
       </c>
@@ -35108,8 +36542,11 @@
       <c r="W476" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X476" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>19</v>
       </c>
@@ -35179,8 +36616,11 @@
       <c r="W477" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X477" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>19</v>
       </c>
@@ -35250,8 +36690,11 @@
       <c r="W478" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X478" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>19</v>
       </c>
@@ -35321,8 +36764,11 @@
       <c r="W479" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X479" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>19</v>
       </c>
@@ -35392,8 +36838,11 @@
       <c r="W480" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X480" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>19</v>
       </c>
@@ -35463,8 +36912,11 @@
       <c r="W481" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X481" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>19</v>
       </c>
@@ -35534,8 +36986,11 @@
       <c r="W482" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X482" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>19</v>
       </c>
@@ -35605,8 +37060,11 @@
       <c r="W483" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X483" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>19</v>
       </c>
@@ -35676,8 +37134,11 @@
       <c r="W484" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X484" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>19</v>
       </c>
@@ -35747,8 +37208,11 @@
       <c r="W485" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X485" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>19</v>
       </c>
@@ -35818,8 +37282,11 @@
       <c r="W486" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X486" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>19</v>
       </c>
@@ -35889,8 +37356,11 @@
       <c r="W487" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X487" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>19</v>
       </c>
@@ -35960,8 +37430,11 @@
       <c r="W488" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X488" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>19</v>
       </c>
@@ -36031,8 +37504,11 @@
       <c r="W489" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X489" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>19</v>
       </c>
@@ -36102,8 +37578,11 @@
       <c r="W490" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X490" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>19</v>
       </c>
@@ -36173,8 +37652,11 @@
       <c r="W491" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X491" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>19</v>
       </c>
@@ -36244,8 +37726,11 @@
       <c r="W492" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X492" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>19</v>
       </c>
@@ -36315,8 +37800,11 @@
       <c r="W493" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X493" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>19</v>
       </c>
@@ -36386,8 +37874,11 @@
       <c r="W494" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X494" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>19</v>
       </c>
@@ -36457,8 +37948,11 @@
       <c r="W495" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X495" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>19</v>
       </c>
@@ -36528,8 +38022,11 @@
       <c r="W496" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X496" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>19</v>
       </c>
@@ -36599,8 +38096,11 @@
       <c r="W497" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X497" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>19</v>
       </c>
@@ -36670,8 +38170,11 @@
       <c r="W498" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X498" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>19</v>
       </c>
@@ -36741,8 +38244,11 @@
       <c r="W499" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X499" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>19</v>
       </c>
@@ -36812,8 +38318,11 @@
       <c r="W500" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X500" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>19</v>
       </c>
@@ -36883,8 +38392,11 @@
       <c r="W501" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X501" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>19</v>
       </c>
@@ -36954,8 +38466,11 @@
       <c r="W502" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X502" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>19</v>
       </c>
@@ -37025,8 +38540,11 @@
       <c r="W503" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X503" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>19</v>
       </c>
@@ -37096,8 +38614,11 @@
       <c r="W504" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X504" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>19</v>
       </c>
@@ -37167,8 +38688,11 @@
       <c r="W505" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X505" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>19</v>
       </c>
@@ -37238,8 +38762,11 @@
       <c r="W506" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X506" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>19</v>
       </c>
@@ -37309,8 +38836,11 @@
       <c r="W507" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X507" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>19</v>
       </c>
@@ -37380,8 +38910,11 @@
       <c r="W508" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X508" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>19</v>
       </c>
@@ -37451,8 +38984,11 @@
       <c r="W509" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X509" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>19</v>
       </c>
@@ -37522,8 +39058,11 @@
       <c r="W510" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X510" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>19</v>
       </c>
@@ -37593,8 +39132,11 @@
       <c r="W511" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X511" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>19</v>
       </c>
@@ -37664,8 +39206,11 @@
       <c r="W512" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X512" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>19</v>
       </c>
@@ -37735,8 +39280,11 @@
       <c r="W513" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X513" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>22</v>
       </c>
@@ -37806,8 +39354,11 @@
       <c r="W514" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X514" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>22</v>
       </c>
@@ -37877,8 +39428,11 @@
       <c r="W515" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X515" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>22</v>
       </c>
@@ -37948,8 +39502,11 @@
       <c r="W516" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X516" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>28</v>
       </c>
@@ -38019,8 +39576,11 @@
       <c r="W517" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X517" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>28</v>
       </c>
@@ -38090,8 +39650,11 @@
       <c r="W518" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X518" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>28</v>
       </c>
@@ -38161,8 +39724,11 @@
       <c r="W519" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X519" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>27</v>
       </c>
@@ -38232,8 +39798,11 @@
       <c r="W520" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X520" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>27</v>
       </c>
@@ -38303,8 +39872,11 @@
       <c r="W521" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X521" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>27</v>
       </c>
@@ -38374,8 +39946,11 @@
       <c r="W522" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X522" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>26</v>
       </c>
@@ -38445,8 +40020,11 @@
       <c r="W523" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X523" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>26</v>
       </c>
@@ -38516,8 +40094,11 @@
       <c r="W524" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X524" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>26</v>
       </c>
@@ -38587,8 +40168,11 @@
       <c r="W525" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X525" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>287</v>
       </c>
@@ -38658,8 +40242,11 @@
       <c r="W526" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X526" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>287</v>
       </c>
@@ -38729,8 +40316,11 @@
       <c r="W527" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X527" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>287</v>
       </c>
@@ -38800,8 +40390,11 @@
       <c r="W528" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X528" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>3</v>
       </c>
@@ -38871,8 +40464,11 @@
       <c r="W529" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X529" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>3</v>
       </c>
@@ -38942,8 +40538,11 @@
       <c r="W530" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X530" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>3</v>
       </c>
@@ -39013,8 +40612,11 @@
       <c r="W531" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X531" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>288</v>
       </c>
@@ -39084,8 +40686,11 @@
       <c r="W532" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X532" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>288</v>
       </c>
@@ -39155,8 +40760,11 @@
       <c r="W533" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X533" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>288</v>
       </c>
@@ -39226,8 +40834,11 @@
       <c r="W534" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X534" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>289</v>
       </c>
@@ -39297,8 +40908,11 @@
       <c r="W535" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X535" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>289</v>
       </c>
@@ -39368,8 +40982,11 @@
       <c r="W536" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X536" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>289</v>
       </c>
@@ -39439,8 +41056,11 @@
       <c r="W537" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X537" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>290</v>
       </c>
@@ -39510,8 +41130,11 @@
       <c r="W538" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X538" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>290</v>
       </c>
@@ -39581,8 +41204,11 @@
       <c r="W539" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X539" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>290</v>
       </c>
@@ -39652,8 +41278,11 @@
       <c r="W540" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X540" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>291</v>
       </c>
@@ -39723,8 +41352,11 @@
       <c r="W541" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X541" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>291</v>
       </c>
@@ -39794,8 +41426,11 @@
       <c r="W542" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X542" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>291</v>
       </c>
@@ -39865,8 +41500,11 @@
       <c r="W543" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X543" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>292</v>
       </c>
@@ -39936,8 +41574,11 @@
       <c r="W544" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X544" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>292</v>
       </c>
@@ -40007,8 +41648,11 @@
       <c r="W545" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X545" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>292</v>
       </c>
@@ -40078,8 +41722,11 @@
       <c r="W546" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X546" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>293</v>
       </c>
@@ -40149,8 +41796,11 @@
       <c r="W547" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X547" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>293</v>
       </c>
@@ -40220,8 +41870,11 @@
       <c r="W548" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X548" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>293</v>
       </c>
@@ -40291,8 +41944,11 @@
       <c r="W549" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X549" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>294</v>
       </c>
@@ -40362,8 +42018,11 @@
       <c r="W550" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X550" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>294</v>
       </c>
@@ -40433,8 +42092,11 @@
       <c r="W551" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X551" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>294</v>
       </c>
@@ -40504,8 +42166,11 @@
       <c r="W552" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X552" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>295</v>
       </c>
@@ -40575,8 +42240,11 @@
       <c r="W553" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X553" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>295</v>
       </c>
@@ -40646,8 +42314,11 @@
       <c r="W554" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X554" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>295</v>
       </c>
@@ -40717,8 +42388,11 @@
       <c r="W555" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X555" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>296</v>
       </c>
@@ -40788,8 +42462,11 @@
       <c r="W556" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X556" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>296</v>
       </c>
@@ -40859,8 +42536,11 @@
       <c r="W557" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X557" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>296</v>
       </c>
@@ -40930,8 +42610,11 @@
       <c r="W558" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X558" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>298</v>
       </c>
@@ -41001,8 +42684,11 @@
       <c r="W559" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X559" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>298</v>
       </c>
@@ -41072,8 +42758,11 @@
       <c r="W560" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X560" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>298</v>
       </c>
@@ -41143,8 +42832,11 @@
       <c r="W561" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X561" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>302</v>
       </c>
@@ -41214,8 +42906,11 @@
       <c r="W562" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X562" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>302</v>
       </c>
@@ -41285,8 +42980,11 @@
       <c r="W563" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X563" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>302</v>
       </c>
@@ -41356,10 +43054,13 @@
       <c r="W564" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X564" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>48</v>
@@ -41427,10 +43128,13 @@
       <c r="W565" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X565" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>48</v>
@@ -41498,10 +43202,13 @@
       <c r="W566" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X566" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>48</v>
@@ -41569,8 +43276,11 @@
       <c r="W567" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X567" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>304</v>
       </c>
@@ -41640,8 +43350,11 @@
       <c r="W568" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X568" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>304</v>
       </c>
@@ -41711,8 +43424,11 @@
       <c r="W569" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X569" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>304</v>
       </c>
@@ -41780,6 +43496,453 @@
         <v>0</v>
       </c>
       <c r="W570" s="2">
+        <v>0</v>
+      </c>
+      <c r="X570" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>299</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D571" s="2">
+        <v>0</v>
+      </c>
+      <c r="E571" s="2">
+        <v>0</v>
+      </c>
+      <c r="F571" s="2">
+        <v>0</v>
+      </c>
+      <c r="G571" s="2">
+        <v>0</v>
+      </c>
+      <c r="H571" s="2">
+        <v>0</v>
+      </c>
+      <c r="I571" s="2">
+        <v>0</v>
+      </c>
+      <c r="J571" s="2">
+        <v>0</v>
+      </c>
+      <c r="K571" s="2">
+        <v>1</v>
+      </c>
+      <c r="L571" s="2">
+        <v>0</v>
+      </c>
+      <c r="M571" s="2">
+        <v>0</v>
+      </c>
+      <c r="N571" s="2">
+        <v>0</v>
+      </c>
+      <c r="O571" s="2">
+        <v>0</v>
+      </c>
+      <c r="P571" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q571" s="2">
+        <v>0</v>
+      </c>
+      <c r="R571" s="2">
+        <v>0</v>
+      </c>
+      <c r="S571" s="2">
+        <v>0</v>
+      </c>
+      <c r="T571" s="2">
+        <v>0</v>
+      </c>
+      <c r="U571" s="2">
+        <v>0</v>
+      </c>
+      <c r="V571" s="2">
+        <v>0</v>
+      </c>
+      <c r="W571" s="2">
+        <v>0</v>
+      </c>
+      <c r="X571" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>299</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D572" s="1">
+        <v>0</v>
+      </c>
+      <c r="E572" s="1">
+        <v>0</v>
+      </c>
+      <c r="F572" s="1">
+        <v>0</v>
+      </c>
+      <c r="G572" s="1">
+        <v>0</v>
+      </c>
+      <c r="H572" s="1">
+        <v>0</v>
+      </c>
+      <c r="I572" s="1">
+        <v>0</v>
+      </c>
+      <c r="J572" s="1">
+        <v>0</v>
+      </c>
+      <c r="K572" s="1">
+        <v>0</v>
+      </c>
+      <c r="L572" s="1">
+        <v>0</v>
+      </c>
+      <c r="M572" s="1">
+        <v>0</v>
+      </c>
+      <c r="N572" s="1">
+        <v>0</v>
+      </c>
+      <c r="O572" s="1">
+        <v>0</v>
+      </c>
+      <c r="P572" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q572" s="1">
+        <v>0</v>
+      </c>
+      <c r="R572" s="1">
+        <v>0</v>
+      </c>
+      <c r="S572" s="1">
+        <v>0</v>
+      </c>
+      <c r="T572" s="1">
+        <v>0</v>
+      </c>
+      <c r="U572" s="1">
+        <v>0</v>
+      </c>
+      <c r="V572" s="1">
+        <v>0</v>
+      </c>
+      <c r="W572" s="1">
+        <v>0</v>
+      </c>
+      <c r="X572" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>299</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D573" s="1">
+        <v>0</v>
+      </c>
+      <c r="E573" s="1">
+        <v>0</v>
+      </c>
+      <c r="F573" s="1">
+        <v>0</v>
+      </c>
+      <c r="G573" s="1">
+        <v>0</v>
+      </c>
+      <c r="H573" s="1">
+        <v>0</v>
+      </c>
+      <c r="I573" s="1">
+        <v>0</v>
+      </c>
+      <c r="J573" s="1">
+        <v>0</v>
+      </c>
+      <c r="K573" s="1">
+        <v>0</v>
+      </c>
+      <c r="L573" s="1">
+        <v>0</v>
+      </c>
+      <c r="M573" s="1">
+        <v>0</v>
+      </c>
+      <c r="N573" s="1">
+        <v>0</v>
+      </c>
+      <c r="O573" s="1">
+        <v>0</v>
+      </c>
+      <c r="P573" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q573" s="1">
+        <v>0</v>
+      </c>
+      <c r="R573" s="1">
+        <v>0</v>
+      </c>
+      <c r="S573" s="1">
+        <v>0</v>
+      </c>
+      <c r="T573" s="1">
+        <v>0</v>
+      </c>
+      <c r="U573" s="1">
+        <v>0</v>
+      </c>
+      <c r="V573" s="1">
+        <v>0</v>
+      </c>
+      <c r="W573" s="1">
+        <v>0</v>
+      </c>
+      <c r="X573" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>307</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D574" s="2">
+        <v>0</v>
+      </c>
+      <c r="E574" s="2">
+        <v>1</v>
+      </c>
+      <c r="F574" s="2">
+        <v>0</v>
+      </c>
+      <c r="G574" s="2">
+        <v>0</v>
+      </c>
+      <c r="H574" s="2">
+        <v>1</v>
+      </c>
+      <c r="I574" s="2">
+        <v>0</v>
+      </c>
+      <c r="J574" s="2">
+        <v>0</v>
+      </c>
+      <c r="K574" s="2">
+        <v>0</v>
+      </c>
+      <c r="L574" s="2">
+        <v>0</v>
+      </c>
+      <c r="M574" s="2">
+        <v>0</v>
+      </c>
+      <c r="N574" s="2">
+        <v>0</v>
+      </c>
+      <c r="O574" s="2">
+        <v>0</v>
+      </c>
+      <c r="P574" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q574" s="2">
+        <v>0</v>
+      </c>
+      <c r="R574" s="2">
+        <v>0</v>
+      </c>
+      <c r="S574" s="2">
+        <v>0</v>
+      </c>
+      <c r="T574" s="1">
+        <v>0</v>
+      </c>
+      <c r="U574" s="1">
+        <v>0</v>
+      </c>
+      <c r="V574" s="1">
+        <v>0</v>
+      </c>
+      <c r="W574" s="1">
+        <v>0</v>
+      </c>
+      <c r="X574" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>307</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D575" s="2">
+        <v>0</v>
+      </c>
+      <c r="E575" s="2">
+        <v>0</v>
+      </c>
+      <c r="F575" s="2">
+        <v>0</v>
+      </c>
+      <c r="G575" s="2">
+        <v>0</v>
+      </c>
+      <c r="H575" s="2">
+        <v>0</v>
+      </c>
+      <c r="I575" s="2">
+        <v>0</v>
+      </c>
+      <c r="J575" s="2">
+        <v>0</v>
+      </c>
+      <c r="K575" s="2">
+        <v>0</v>
+      </c>
+      <c r="L575" s="2">
+        <v>0</v>
+      </c>
+      <c r="M575" s="2">
+        <v>0</v>
+      </c>
+      <c r="N575" s="2">
+        <v>0</v>
+      </c>
+      <c r="O575" s="2">
+        <v>0</v>
+      </c>
+      <c r="P575" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="2">
+        <v>0</v>
+      </c>
+      <c r="R575" s="2">
+        <v>0</v>
+      </c>
+      <c r="S575" s="2">
+        <v>0</v>
+      </c>
+      <c r="T575" s="1">
+        <v>0</v>
+      </c>
+      <c r="U575" s="1">
+        <v>0</v>
+      </c>
+      <c r="V575" s="1">
+        <v>0</v>
+      </c>
+      <c r="W575" s="1">
+        <v>0</v>
+      </c>
+      <c r="X575" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>307</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D576" s="2">
+        <v>0</v>
+      </c>
+      <c r="E576" s="2">
+        <v>0</v>
+      </c>
+      <c r="F576" s="2">
+        <v>0</v>
+      </c>
+      <c r="G576" s="2">
+        <v>0</v>
+      </c>
+      <c r="H576" s="2">
+        <v>0</v>
+      </c>
+      <c r="I576" s="2">
+        <v>0</v>
+      </c>
+      <c r="J576" s="2">
+        <v>0</v>
+      </c>
+      <c r="K576" s="2">
+        <v>0</v>
+      </c>
+      <c r="L576" s="2">
+        <v>0</v>
+      </c>
+      <c r="M576" s="2">
+        <v>0</v>
+      </c>
+      <c r="N576" s="2">
+        <v>0</v>
+      </c>
+      <c r="O576" s="2">
+        <v>0</v>
+      </c>
+      <c r="P576" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q576" s="2">
+        <v>0</v>
+      </c>
+      <c r="R576" s="2">
+        <v>0</v>
+      </c>
+      <c r="S576" s="2">
+        <v>0</v>
+      </c>
+      <c r="T576" s="1">
+        <v>0</v>
+      </c>
+      <c r="U576" s="1">
+        <v>0</v>
+      </c>
+      <c r="V576" s="1">
+        <v>0</v>
+      </c>
+      <c r="W576" s="1">
+        <v>0</v>
+      </c>
+      <c r="X576" s="1">
         <v>0</v>
       </c>
     </row>
